--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robot\OneDrive\Documents\UiPath\vietqr_get_statement\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9ABA3F-28C4-49EB-8EB9-D63213AF6431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112BFCA-34F1-43DB-989F-84C94359567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -171,21 +171,12 @@
     <t>https://ebank.msb.com.vn/IBSCorp/</t>
   </si>
   <si>
-    <t>URL_VIETINBANK</t>
-  </si>
-  <si>
     <t>https://efast.vietinbank.vn/login</t>
   </si>
   <si>
-    <t>URL_TECHCOMBANK</t>
-  </si>
-  <si>
     <t>https://business-id.techcombank.com.vn/auth/realms/backbase/protocol/openid-connect/auth?client_id=bb-web-client&amp;redirect_uri=https%3A%2F%2Fbusiness.techcombank.com.vn%2Fredirect&amp;state=f5ded7a5-716f-4d13-807d-d38b2a6e7121&amp;response_mode=fragment&amp;response_type=code%20id_token%20token&amp;scope=openid&amp;nonce=38f3dd28-3a28-4916-8c92-fbf5a2a9281a&amp;ui_locales=vi%20en&amp;code_challenge=MJzCZTXW0VDJ34j1zCa-m2TGn3g7qKSML_X4qnwU3Cg&amp;code_challenge_method=S256</t>
   </si>
   <si>
-    <t>URL_VPBANK</t>
-  </si>
-  <si>
     <t>https://online.vpbank.com.vn/neobiz/default</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>https://www.bidv.vn/iBank/MainEB.html</t>
   </si>
   <si>
-    <t>URL_VIETCOMBANK</t>
-  </si>
-  <si>
     <t>https://www.vietcombank.com.vn/IBanking20/default.aspx</t>
   </si>
   <si>
@@ -226,13 +214,49 @@
   </si>
   <si>
     <t>E:\vietqr_get_statement</t>
+  </si>
+  <si>
+    <t>URL_ICB</t>
+  </si>
+  <si>
+    <t>URL_TCB</t>
+  </si>
+  <si>
+    <t>URL_VPB</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Việt Nam Thịnh Vượng</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Hàng Hải</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Công thương Việt Nam</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Kỹ thương Việt Nam</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Đầu tư và Phát triển Việt Nam</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại Thương Việt Nam</t>
+  </si>
+  <si>
+    <t>URL_VCB</t>
+  </si>
+  <si>
+    <t>CAPTCHA_API</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -269,6 +293,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,10 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,8 +343,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -421,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C16" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C17" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0CD1850D-A347-43FD-8C30-88B2882C2588}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{771FF96E-C8E1-4598-8608-0C7D1E7756F0}" name="Value" dataDxfId="1"/>
@@ -729,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -780,7 +814,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -813,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -832,110 +866,136 @@
     </row>
     <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25">
-      <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+    <row r="7" spans="1:26" ht="14.25">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25">
+      <c r="A9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f>B6&amp;"\download\{0}"</f>
+      <c r="A16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>B7&amp;"\download\{0}"</f>
         <v>E:\vietqr_get_statement\download\{0}</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1901,12 +1961,16 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{DE2C0188-7823-4887-86AD-E65AB9CEFF20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robot\OneDrive\Documents\UiPath\vietqr_get_statement\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\vietqr_get_statement\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112BFCA-34F1-43DB-989F-84C94359567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F562E6F7-92C1-4DDE-A1A8-E11EA0A05734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -249,7 +249,13 @@
     <t>CAPTCHA_API</t>
   </si>
   <si>
-    <t>1234567890</t>
+    <t>http://112.78.1.220:8084/vqr/api/transaction/rpa-sync</t>
+  </si>
+  <si>
+    <t>RPA_SYNC_API</t>
+  </si>
+  <si>
+    <t>0659525f8943f6a826126343f7e1f963</t>
   </si>
 </sst>
 </file>
@@ -455,8 +461,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C17" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C18" xr:uid="{C0E0F7CC-54E8-41FA-845C-3FFF1C4910A3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0CD1850D-A347-43FD-8C30-88B2882C2588}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{771FF96E-C8E1-4598-8608-0C7D1E7756F0}" name="Value" dataDxfId="1"/>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -878,7 +884,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -891,111 +897,119 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:26" ht="14.25">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25">
+      <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B18" s="3" t="str">
         <f>B7&amp;"\download\{0}"</f>
         <v>E:\vietqr_get_statement\download\{0}</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1962,10 +1976,11 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{DE2C0188-7823-4887-86AD-E65AB9CEFF20}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{DE2C0188-7823-4887-86AD-E65AB9CEFF20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
